--- a/doc/ue_GameplayAbilitySystem.xlsx
+++ b/doc/ue_GameplayAbilitySystem.xlsx
@@ -2,12 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AbilitySystemComponent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +24,114 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能系统</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GameplayAbilitySystem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +437,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_GameplayAbilitySystem.xlsx
+++ b/doc/ue_GameplayAbilitySystem.xlsx
@@ -5,15 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="807" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="1" r:id="rId1"/>
     <sheet name="AbilitySystemComponent" sheetId="2" r:id="rId2"/>
+    <sheet name="GA" sheetId="7" r:id="rId3"/>
+    <sheet name="GE添加执行流程" sheetId="9" r:id="rId4"/>
+    <sheet name="GE计算" sheetId="8" r:id="rId5"/>
+    <sheet name="关于存储" sheetId="3" r:id="rId6"/>
+    <sheet name="复杂数值计算" sheetId="5" r:id="rId7"/>
+    <sheet name="和传统MMO对比" sheetId="6" r:id="rId8"/>
+    <sheet name="预测" sheetId="10" r:id="rId9"/>
+    <sheet name="通过DS同步给别人" sheetId="11" r:id="rId10"/>
+    <sheet name="技能使用和参数传递" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="267">
   <si>
     <r>
       <rPr>
@@ -82,12 +91,904 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UAbilitySystemComponent</t>
+  </si>
+  <si>
+    <t>/** The core ActorComponent for interfacing with the GameplayAbilities System */</t>
+  </si>
+  <si>
+    <t>UCLASS(ClassGroup=AbilitySystem, hidecategories=(Object,LOD,Lighting,Transform,Sockets,TextureStreaming), editinlinenew, meta=(BlueprintSpawnableComponent))</t>
+  </si>
+  <si>
+    <t>class GAMEPLAYABILITIES_API UAbilitySystemComponent : public UGameplayTasksComponent, public IGameplayTagAssetInterface, public IAbilitySystemReplicationProxyInterface</t>
+  </si>
+  <si>
+    <t>继承自UGameplayTasksComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGameplayTasksComponent::UGameplayTasksComponent(const FObjectInitializer&amp; ObjectInitializer)</t>
+  </si>
+  <si>
+    <t>: Super(ObjectInitializer)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>PrimaryComponentTick.TickGroup = TG_DuringPhysics;</t>
+  </si>
+  <si>
+    <t>PrimaryComponentTick.bStartWithTickEnabled = false;</t>
+  </si>
+  <si>
+    <t>PrimaryComponentTick.bCanEverTick = true;</t>
+  </si>
+  <si>
+    <t>SetIsReplicatedByDefault(true);</t>
+  </si>
+  <si>
+    <t>bInEventProcessingInProgress = false;</t>
+  </si>
+  <si>
+    <t>TopActivePriority = 0;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>注意，在UGameplayTasksComponent的构造函数里面已经设置了自己可复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！设置可复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入Actor的可复制Component中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Create ability system component, and set it to be explicitly replicated</t>
+  </si>
+  <si>
+    <t>AbilitySystemComponent = CreateDefaultSubobject&lt;UGSAbilitySystemComponent&gt;(TEXT("AbilitySystemComponent"));</t>
+  </si>
+  <si>
+    <t>AbilitySystemComponent-&gt;SetIsReplicated(true);</t>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个CreatedDefailtSubObject是Uobject的成员函数，创建的对象默认Owner就是自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* UObject::CreateDefaultSubobject(FName SubobjectFName, UClass* ReturnType, UClass* ClassToCreateByDefault, bool bIsRequired, bool bIsTransient)</t>
+  </si>
+  <si>
+    <t>FObjectInitializer* CurrentInitializer = FUObjectThreadContext::Get().TopInitializer();</t>
+  </si>
+  <si>
+    <t>UE_CLOG(!CurrentInitializer, LogObj, Fatal, TEXT("No object initializer found during construction."));</t>
+  </si>
+  <si>
+    <t>UE_CLOG(CurrentInitializer-&gt;Obj != this, LogObj, Fatal, TEXT("Using incorrect object initializer."));</t>
+  </si>
+  <si>
+    <t>return CurrentInitializer-&gt;CreateDefaultSubobject(this, SubobjectFName, ReturnType, ClassToCreateByDefault, bIsRequired, bIsTransient);</t>
+  </si>
+  <si>
+    <t>成员函数，传入this当Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对非CDO对象，在PostInitProperties里面遍历所有的Component，找到可复制的全部加入到ReplicatedComponents，后续同步时会用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AActor::PostInitProperties()</t>
+  </si>
+  <si>
+    <t>Super::PostInitProperties();</t>
+  </si>
+  <si>
+    <t>RemoteRole = (bReplicates ? ROLE_SimulatedProxy : ROLE_None);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Make sure the OwnedComponents list correct.  </t>
+  </si>
+  <si>
+    <t>// Under some circumstances sub-object instancing can result in bogus/duplicate entries.</t>
+  </si>
+  <si>
+    <t>// This is not necessary for CDOs</t>
+  </si>
+  <si>
+    <t>if (!HasAnyFlags(RF_ClassDefaultObject))</t>
+  </si>
+  <si>
+    <t>ResetOwnedComponents();</t>
+  </si>
+  <si>
+    <t>void AActor::ResetOwnedComponents()</t>
+  </si>
+  <si>
+    <t>OwnedComponents.Reset();</t>
+  </si>
+  <si>
+    <t>ReplicatedComponents.Reset();</t>
+  </si>
+  <si>
+    <t>ForEachObjectWithOuter(this, [this](UObject* Child)</t>
+  </si>
+  <si>
+    <t>UActorComponent* Component = Cast&lt;UActorComponent&gt;(Child);</t>
+  </si>
+  <si>
+    <t>if (Component &amp;&amp; Component-&gt;GetOwner() == this)</t>
+  </si>
+  <si>
+    <t>OwnedComponents.Add(Component);</t>
+  </si>
+  <si>
+    <t>if (Component-&gt;GetIsReplicated())</t>
+  </si>
+  <si>
+    <t>ReplicatedComponents.Add(Component);</t>
+  </si>
+  <si>
+    <t>}, true, RF_NoFlags, EInternalObjectFlags::PendingKill);</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！加入到OwnerComponet中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！加入到可复制的Components中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorComponent::PostInitProperties()</t>
+  </si>
+  <si>
+    <t>Component的初始化会将自己加入到Owner的列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerPrivate-&gt;AddOwnedComponent(this);</t>
+  </si>
+  <si>
+    <t>void AActor::AddOwnedComponent(UActorComponent* Component)</t>
+  </si>
+  <si>
+    <t>OwnedComponents.Add(Component, &amp;bAlreadyInSet);</t>
+  </si>
+  <si>
+    <t>加入到OwnedComponents中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!bAlreadyInSet)</t>
+  </si>
+  <si>
+    <t>ReplicatedComponents.AddUnique(Component);</t>
+  </si>
+  <si>
+    <t>if (Component-&gt;IsCreatedByConstructionScript())</t>
+  </si>
+  <si>
+    <t>BlueprintCreatedComponents.Add(Component);</t>
+  </si>
+  <si>
+    <t>else if (Component-&gt;CreationMethod == EComponentCreationMethod::Instance)</t>
+  </si>
+  <si>
+    <t>InstanceComponents.Add(Component);</t>
+  </si>
+  <si>
+    <t>加入到可复制列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对CDO对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对非CDO对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerState = World-&gt;SpawnActor&lt;APlayerState&gt;(PlayerStateClassToSpawn, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>Actor-&gt;PostSpawnInitialize(UserTransform, SpawnParameters.Owner, SpawnParameters.Instigator, SpawnParameters.IsRemoteOwned(), SpawnParameters.bNoFail, SpawnParameters.bDeferConstruction);</t>
+  </si>
+  <si>
+    <t>FinishSpawning(UserSpawnTransform, true);</t>
+  </si>
+  <si>
+    <t>PostActorConstruction();</t>
+  </si>
+  <si>
+    <t>PostInitializeComponents();</t>
+  </si>
+  <si>
+    <t>void AActor::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>UpdateAllReplicatedComponents();</t>
+  </si>
+  <si>
+    <t>更新所有需要复制的Components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AActor::UpdateAllReplicatedComponents()</t>
+  </si>
+  <si>
+    <t>for (UActorComponent* Component : OwnedComponents)</t>
+  </si>
+  <si>
+    <t>if (Component != nullptr &amp;&amp; Component-&gt;GetIsReplicated())</t>
+  </si>
+  <si>
+    <t>// We reset the array so no need to add unique</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新加入到可复制列表、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面在Actor的时候已经加入了，所以这个地方不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilitySystemComponent-&gt;SetReplicationMode(EGameplayEffectReplicationMode::Mixed);</t>
+  </si>
+  <si>
+    <t>使用GAS这一套，GE相关的数据无法存储？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般MMO会遇到，BUFF持续时间，叠加，各种消退规则（跨场景消失或不消失，上下线消失与不消失等），这些数据都是需要存储的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE中GE和传统MMO中BUFF的区别和对比思考？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS配合TAG也可以做控制，但是一些极端写死代码的怎么处理？？？复杂计算方便，根据角色等级和其他BUFF情况计算的怎么做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（传统的办法是各自BUFF身上会存在一个临时数据，每次遍历BUFF来计算属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统的伤害计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防物理攻击+魔法攻击+物理防御+魔法防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击者物理攻击+魔法攻击+物理防御+魔法防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要根据双方攻防一起计算，群攻的话还有可能需要平摊攻击；也有可能出现暴击；一定概率失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上使用GE怎么搭配实现？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个有牵扯到MMO的养成部分，涉及存储等，现在DS这套需要考虑局内数据不能外带到局外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统游戏，区分的是技能和BUFF；技能催动动作，BUFF催动特效和音效，但是本质上技能和BUFF都是逻辑数据和表现是分开的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASC中技能是GA，BUFF是GE，音效特效就是GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何存储？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统的方式，单独存储各个技能信息，单独存储各个BUFF信息，这些数据通过LIST发给客户端后，客户端根据数据分别进行场景表现和UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS把数据和GA，GE分开的；尤其是数据，Attribute同步给客户端刷UI也是用的这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还涉及到关系，阵营，势力等等判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivateAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommitAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TryActivateAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanActivateAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次进行COST和COOLDOWN检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行COST和COOLDOWN的消耗处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是C++，则直接就进行Commit处理了，否则先回调到蓝图里面等蓝图处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行COST和COOLDOWN的检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图有扩展的话，在调用蓝图的实现判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这就是为什么GA的蓝图里面Activate之后一定要先调Commit的原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS()</t>
+  </si>
+  <si>
+    <t>class ACTIONRPG_API UDamageExecutionCalculation : public UGameplayEffectExecutionCalculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GENERATED_BODY()</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UDamageExecutionCalculation();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    virtual void Execute_Implementation(const FGameplayEffectCustomExecutionParameters&amp; ExecutionParams, OUT FGameplayEffectCustomExecutionOutput&amp; OutExecutionOutput) const override;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>struct RPGDamageStatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DECLARE_ATTRIBUTE_CAPTUREDEF(DefensePower);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DECLARE_ATTRIBUTE_CAPTUREDEF(AttackPower);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DECLARE_ATTRIBUTE_CAPTUREDEF(Damage);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RPGDamageStatics()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Capture the Target's DefensePower attribute. Do not snapshot it, because we want to use the health value at the moment we apply the execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DEFINE_ATTRIBUTE_CAPTUREDEF(URPGAttributeSet, DefensePower, Target, false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Capture the Source's AttackPower. We do want to snapshot this at the moment we create the GameplayEffectSpec that will execute the damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // (imagine we fire a projectile: we create the GE Spec when the projectile is fired. When it hits the target, we want to use the AttackPower at the moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // the projectile was launched, not when it hits).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DEFINE_ATTRIBUTE_CAPTUREDEF(URPGAttributeSet, AttackPower, Source, true);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Also capture the source's raw Damage, which is normally passed in directly via the execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DEFINE_ATTRIBUTE_CAPTUREDEF(URPGAttributeSet, Damage, Source, true);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>static const RPGDamageStatics&amp; DamageStatics()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static RPGDamageStatics DmgStatics;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return DmgStatics;</t>
+  </si>
+  <si>
+    <t>UDamageExecutionCalculation::UDamageExecutionCalculation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RelevantAttributesToCapture.Add(DamageStatics().DefensePowerDef);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RelevantAttributesToCapture.Add(DamageStatics().AttackPowerDef);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RelevantAttributesToCapture.Add(DamageStatics().DamageDef);</t>
+  </si>
+  <si>
+    <t>void UDamageExecutionCalculation::Execute_Implementation(const FGameplayEffectCustomExecutionParameters&amp; ExecutionParams, OUT FGameplayEffectCustomExecutionOutput&amp; OutExecutionOutput) const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UAbilitySystemComponent* TargetAbilitySystemComponent = ExecutionParams.GetTargetAbilitySystemComponent();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UAbilitySystemComponent* SourceAbilitySystemComponent = ExecutionParams.GetSourceAbilitySystemComponent();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AActor* SourceActor = SourceAbilitySystemComponent ? SourceAbilitySystemComponent-&gt;AvatarActor : nullptr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AActor* TargetActor = TargetAbilitySystemComponent ? TargetAbilitySystemComponent-&gt;AvatarActor : nullptr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const FGameplayEffectSpec&amp; Spec = ExecutionParams.GetOwningSpec();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // Gather the tags from the source and target as that can affect which buffs should be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const FGameplayTagContainer* SourceTags = Spec.CapturedSourceTags.GetAggregatedTags();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const FGameplayTagContainer* TargetTags = Spec.CapturedTargetTags.GetAggregatedTags();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FAggregatorEvaluateParameters EvaluationParameters;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EvaluationParameters.SourceTags = SourceTags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EvaluationParameters.TargetTags = TargetTags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // --------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //  Damage Done = Damage * AttackPower / DefensePower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //  If DefensePower is 0, it is treated as 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //计算捕获属性的数值。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    float DefensePower = 0.f;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ExecutionParams.AttemptCalculateCapturedAttributeMagnitude(DamageStatics().DefensePowerDef, EvaluationParameters, DefensePower);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //因为要做除数所以需要加入容错语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (DefensePower == 0.0f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DefensePower = 1.0f;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    float AttackPower = 0.f;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ExecutionParams.AttemptCalculateCapturedAttributeMagnitude(DamageStatics().AttackPowerDef, EvaluationParameters, AttackPower);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    float Damage = 0.f;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ExecutionParams.AttemptCalculateCapturedAttributeMagnitude(DamageStatics().DamageDef, EvaluationParameters, Damage);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //伤害计算公式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    float DamageDone = Damage * AttackPower / DefensePower;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (DamageDone &gt; 0.f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //这里可以修改多个属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OutExecutionOutput.AddOutputModifier(FGameplayModifierEvaluatedData(DamageStatics().DamageProperty, EGameplayModOp::Additive, DamageDone));</t>
+  </si>
+  <si>
+    <t>可以通过攻击者和受击者Actor对象来计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行比较复杂的判断，例如攻防，物理魔法之类的混合计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般技能都有一个通用CD，然后是各自技能的CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS对于通用CD怎么算？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图中找到目标信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图中调用ApplyGameplayEffectSpecToTarget，给目标发送GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE被添加和执行是顺序执行的，在一桢内处理，所以理论上携带的来源目标肯定是有效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！目标和来源都有效的话，就可以取各自身上数据进行复杂运算、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFINE_FUNCTION(UGameplayAbility::execK2_ApplyGameplayEffectSpecToTarget)</t>
+  </si>
+  <si>
+    <t>P_GET_STRUCT(FGameplayEffectSpecHandle,Z_Param_EffectSpecHandle);</t>
+  </si>
+  <si>
+    <t>P_GET_STRUCT(FGameplayAbilityTargetDataHandle,Z_Param_TargetData);</t>
+  </si>
+  <si>
+    <t>P_FINISH;</t>
+  </si>
+  <si>
+    <t>P_NATIVE_BEGIN;</t>
+  </si>
+  <si>
+    <t>*(TArray&lt;FActiveGameplayEffectHandle&gt;*)Z_Param__Result=P_THIS-&gt;K2_ApplyGameplayEffectSpecToTarget(Z_Param_EffectSpecHandle,Z_Param_TargetData);</t>
+  </si>
+  <si>
+    <t>P_NATIVE_END;</t>
+  </si>
+  <si>
+    <t>蓝图回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FActiveGameplayEffectHandle&gt; UGameplayAbility::K2_ApplyGameplayEffectSpecToTarget(const FGameplayEffectSpecHandle SpecHandle, FGameplayAbilityTargetDataHandle TargetData)</t>
+  </si>
+  <si>
+    <t>return ApplyGameplayEffectSpecToTarget(CurrentSpecHandle, CurrentActorInfo, CurrentActivationInfo, SpecHandle, TargetData);</t>
+  </si>
+  <si>
+    <t>TArray&lt;FActiveGameplayEffectHandle&gt; UGameplayAbility::ApplyGameplayEffectSpecToTarget(const FGameplayAbilitySpecHandle AbilityHandle, const FGameplayAbilityActorInfo* ActorInfo, const FGameplayAbilityActivationInfo ActivationInfo, const FGameplayEffectSpecHandle SpecHandle, const FGameplayAbilityTargetDataHandle&amp; TargetData) const</t>
+  </si>
+  <si>
+    <t>TArray&lt;FActiveGameplayEffectHandle&gt; EffectHandles;</t>
+  </si>
+  <si>
+    <t>if (SpecHandle.IsValid() &amp;&amp; HasAuthorityOrPredictionKey(ActorInfo, &amp;ActivationInfo))</t>
+  </si>
+  <si>
+    <t>TARGETLIST_SCOPE_LOCK(*ActorInfo-&gt;AbilitySystemComponent);</t>
+  </si>
+  <si>
+    <t>for (TSharedPtr&lt;FGameplayAbilityTargetData&gt; Data : TargetData.Data)</t>
+  </si>
+  <si>
+    <t>if (Data.IsValid())</t>
+  </si>
+  <si>
+    <t>EffectHandles.Append(Data-&gt;ApplyGameplayEffectSpec(*SpecHandle.Data.Get(), ActorInfo-&gt;AbilitySystemComponent-&gt;GetPredictionKeyForNewAction()));</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>ABILITY_LOG(Warning, TEXT("UGameplayAbility::ApplyGameplayEffectSpecToTarget invalid target data passed in. Ability: %s"), *GetPathName());</t>
+  </si>
+  <si>
+    <t>return EffectHandles;</t>
+  </si>
+  <si>
+    <t>！！！遍历目标结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！发送给目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data中就包含目标Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecHandler中包含来源的GAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE执行的时候，通过上下文信息就可以获取足够的信息，例如来源等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGameplayEffectContext</t>
+  </si>
+  <si>
+    <t>创建GamePlayEffectSpec时，设置了Context信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(CurrentActorInfo &amp;&amp; CurrentActorInfo-&gt;AbilitySystemComponent.IsValid());</t>
+  </si>
+  <si>
+    <t>return MakeOutgoingGameplayEffectSpec(CurrentSpecHandle, CurrentActorInfo, CurrentActivationInfo, GameplayEffectClass, Level);</t>
+  </si>
+  <si>
+    <t>FGameplayEffectSpecHandle UGameplayAbility::MakeOutgoingGameplayEffectSpec(const FGameplayAbilitySpecHandle Handle, const FGameplayAbilityActorInfo* ActorInfo, const FGameplayAbilityActivationInfo ActivationInfo, TSubclassOf&lt;UGameplayEffect&gt; GameplayEffectClass, float Level) const</t>
+  </si>
+  <si>
+    <t>FGameplayEffectSpecHandle NewHandle = AbilitySystemComponent-&gt;MakeOutgoingSpec(GameplayEffectClass, Level, MakeEffectContext(Handle, ActorInfo));</t>
+  </si>
+  <si>
+    <t>FGameplayEffectContextHandle UGameplayAbility::MakeEffectContext(const FGameplayAbilitySpecHandle Handle, const FGameplayAbilityActorInfo *ActorInfo) const</t>
+  </si>
+  <si>
+    <t>FGameplayEffectContextHandle Context = FGameplayEffectContextHandle(UAbilitySystemGlobals::Get().AllocGameplayEffectContext());</t>
+  </si>
+  <si>
+    <t>Context.AddInstigator(ActorInfo-&gt;OwnerActor.Get(), ActorInfo-&gt;AvatarActor.Get());</t>
+  </si>
+  <si>
+    <t>！！！将自己设置到Content中，包含了自己的Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，都是用的WeakObjectPtr，使用的时候最好进行判断（瞬时的没问题，否则可能面临来源失效的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ga被添加的时候，如果是每个Actor自己复制一个的话，其自身的Actorinfo就是从GAS上获取Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGameplayEffectSpecHandle UGameplayAbility::MakeOutgoingGameplayEffectSpec(TSubclassOf&lt;UGameplayEffect&gt; GameplayEffectClass, float Level) const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！GA的Instancing Policy必须是Instanced Per Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/458192589</t>
+  </si>
+  <si>
+    <t>/** Data about montages that is replicated to simulated clients */</t>
+  </si>
+  <si>
+    <t>USTRUCT()</t>
+  </si>
+  <si>
+    <t>struct GAMEPLAYABILITIES_API FGameplayAbilityRepAnimMontage</t>
+  </si>
+  <si>
+    <t>同步Montage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client与DS交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带参数技能（TASK）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有可预测的才需要客户端+DS同步，非可预测的不需要，所以暂不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不携带参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UAbilitySystemComponent::TryActivateAbility(FGameplayAbilitySpecHandle AbilityToActivate, bool bAllowRemoteActivation)</t>
+  </si>
+  <si>
+    <t>直接调用TryActivateAbility，内部会直接调用服务器的ServerTryActivateAbility（服务器实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UAbilitySystemComponent::CallServerTryActivateAbility(FGameplayAbilitySpecHandle AbilityHandle, bool InputPressed, FPredictionKey PredictionKey)</t>
+  </si>
+  <si>
+    <t>UE_CLOG(AbilitySystemLogServerRPCBatching, LogAbilitySystem, Display, TEXT("::CallServerTryActivateAbility %s %d %s"), *AbilityHandle.ToString(), InputPressed, *PredictionKey.ToString());</t>
+  </si>
+  <si>
+    <t>/** Queue this call up if we are in  a batch window, otherwise just push it through now */</t>
+  </si>
+  <si>
+    <t>if (ExistingBatchData-&gt;Started)</t>
+  </si>
+  <si>
+    <t>FGameplayAbilitySpec* Spec = FindAbilitySpecFromHandle(AbilityHandle);</t>
+  </si>
+  <si>
+    <t>ABILITY_LOG(Warning, TEXT("::CallServerTryActivateAbility called multiple times for ability (%s) during a single batch."), Spec ? *GetNameSafe(Spec-&gt;Ability) : TEXT("INVALID"));</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>ExistingBatchData-&gt;Started = true;</t>
+  </si>
+  <si>
+    <t>ExistingBatchData-&gt;InputPressed = InputPressed;</t>
+  </si>
+  <si>
+    <t>ExistingBatchData-&gt;PredictionKey = PredictionKey;</t>
+  </si>
+  <si>
+    <t>UE_CLOG(AbilitySystemLogServerRPCBatching, LogAbilitySystem, Display, TEXT("    NO BATCH IN SCOPE"));</t>
+  </si>
+  <si>
+    <t>ServerTryActivateAbility(AbilityHandle, InputPressed, PredictionKey);</t>
+  </si>
+  <si>
+    <t>注意具体的实现，如果设置了LocalServerAbilityRPCBatchData，则不发送，需要等调用结束的时候设置，后面说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接调用服务器的RPC接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！直接通知服务器，没有啥参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了BatchData，则不发送，需要等后面准备好数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！例如使用技能时的目标对象，目标地点等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要设置FScopedServerAbilityRPCBatcher，然后在调用完TryActivateAbility，ExternalEndAbility等之后，在其析构函数里面发送给服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityActivated = TryActivateAbility(InAbilityHandle, true);</t>
+  </si>
+  <si>
+    <t>if (EndAbilityImmediately)</t>
+  </si>
+  <si>
+    <t>FGameplayAbilitySpec* AbilitySpec = FindAbilitySpecFromHandle(InAbilityHandle);</t>
+  </si>
+  <si>
+    <t>if (AbilitySpec)</t>
+  </si>
+  <si>
+    <t>UGSGameplayAbility* GSAbility = Cast&lt;UGSGameplayAbility&gt;(AbilitySpec-&gt;GetPrimaryInstance());</t>
+  </si>
+  <si>
+    <t>GSAbility-&gt;ExternalEndAbility();</t>
+  </si>
+  <si>
+    <t>！！！客户端的TryActivateAbility里面会设置技能目标对象信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FScopedServerAbilityRPCBatcher GSAbilityRPCBatcher(this, InAbilityHandle);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！在FScopedServerAbilityRPCBatcher析构里面发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FServerAbilityRPCBatch* ExistingBatchData = LocalServerAbilityRPCBatchData.FindByKey(AbilityHandle))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，因为设置了FScopedServerAbilityRPCBatcher，上面的代码LocalServerAbilityRPCBatchData就有数据了，所以TryActivateAbility内部不会掉DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要以GASShooter为例进行分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/tranek/GASShooter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +1034,49 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,9 +1091,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,17 +1386,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4"/>
+  <dimension ref="B4:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="D11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="F16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="F19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="F20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="G22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="H24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="H25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="H26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="G29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="G30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="G31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="G36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -459,14 +1765,1720 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F89" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>42</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>78</v>
+      </c>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>79</v>
+      </c>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>80</v>
+      </c>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>48</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="E7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="F10" t="s">
+        <v>212</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>198</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="H52" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>200</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="Q5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:R29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="Q23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/ue_GameplayAbilitySystem.xlsx
+++ b/doc/ue_GameplayAbilitySystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="807" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="807" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,15 @@
     <sheet name="GA" sheetId="7" r:id="rId3"/>
     <sheet name="GE添加执行流程" sheetId="9" r:id="rId4"/>
     <sheet name="GE计算" sheetId="8" r:id="rId5"/>
-    <sheet name="关于存储" sheetId="3" r:id="rId6"/>
-    <sheet name="复杂数值计算" sheetId="5" r:id="rId7"/>
-    <sheet name="和传统MMO对比" sheetId="6" r:id="rId8"/>
-    <sheet name="预测" sheetId="10" r:id="rId9"/>
-    <sheet name="通过DS同步给别人" sheetId="11" r:id="rId10"/>
-    <sheet name="技能使用和参数传递" sheetId="12" r:id="rId11"/>
+    <sheet name="GE类型与计算" sheetId="15" r:id="rId6"/>
+    <sheet name="AS" sheetId="13" r:id="rId7"/>
+    <sheet name="AttributeData" sheetId="14" r:id="rId8"/>
+    <sheet name="复杂数值计算" sheetId="5" r:id="rId9"/>
+    <sheet name="和传统MMO对比" sheetId="6" r:id="rId10"/>
+    <sheet name="预测" sheetId="10" r:id="rId11"/>
+    <sheet name="通过DS同步给别人" sheetId="11" r:id="rId12"/>
+    <sheet name="技能使用和参数传递" sheetId="12" r:id="rId13"/>
+    <sheet name="关于存储" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="299">
   <si>
     <r>
       <rPr>
@@ -982,6 +985,117 @@
   </si>
   <si>
     <t>https://github.com/tranek/GASShooter</t>
+  </si>
+  <si>
+    <t>主要分为BaseValue和Currentvalue，所实话，比较晦涩，写个例子跟踪了之后才明白是啥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在持续GE修改CurrentValue的阶段中，如果有其他GE修改了BaseValue，那么这个CurrentValue会同时发生变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于持续一段时间的GE来说，添加的时候设置的时CurrentValue，等GE到期删除的时候，会将CurrentValue回退回去（这里就牵扯到怎么计算的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！直接取当前的BaseValue赋值的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当ApplyGameplayEffectSpecToTarget时，会判断GE的类型进行特殊化处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FActiveGameplayEffectHandle UAbilitySystemComponent::ApplyGameplayEffectSpecToSelf(const FGameplayEffectSpec &amp;Spec, FPredictionKey PredictionKey)</t>
+  </si>
+  <si>
+    <t>如果是EGameplayEffectDurationType::Instant类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (OurCopyOfSpec-&gt;Def-&gt;OngoingTagRequirements.IsEmpty())</t>
+  </si>
+  <si>
+    <t>ExecuteGameplayEffect(*OurCopyOfSpec, PredictionKey);</t>
+  </si>
+  <si>
+    <t>ABILITY_LOG(Warning, TEXT("%s is instant but has tag requirements. Tag requirements can only be used with gameplay effects that have a duration. This gameplay effect will be ignored."), *Spec.Def-&gt;GetPathName());</t>
+  </si>
+  <si>
+    <t>直接就开始计算GE的属性修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Spec.Def-&gt;DurationPolicy == EGameplayEffectDurationType::Instant)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不是EGameplayEffectDurationType::Instant，或者是永久的GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Spec.Def-&gt;DurationPolicy != EGameplayEffectDurationType::Instant || bTreatAsInfiniteDuration)</t>
+  </si>
+  <si>
+    <t>AppliedEffect = ActiveGameplayEffects.ApplyGameplayEffectSpec(Spec, PredictionKey, bFoundExistingStackableGE);</t>
+  </si>
+  <si>
+    <t>if (!AppliedEffect)</t>
+  </si>
+  <si>
+    <t>return FActiveGameplayEffectHandle();</t>
+  </si>
+  <si>
+    <t>MyHandle = AppliedEffect-&gt;Handle;</t>
+  </si>
+  <si>
+    <t>OurCopyOfSpec = &amp;(AppliedEffect-&gt;Spec);</t>
+  </si>
+  <si>
+    <t>// Log results of applied GE spec</t>
+  </si>
+  <si>
+    <t>if (UE_LOG_ACTIVE(VLogAbilitySystem, Log))</t>
+  </si>
+  <si>
+    <t>ABILITY_VLOG(GetOwnerActor(), Log, TEXT("Applied %s"), *OurCopyOfSpec-&gt;Def-&gt;GetFName().ToString());</t>
+  </si>
+  <si>
+    <t>for (const FGameplayModifierInfo&amp; Modifier : Spec.Def-&gt;Modifiers)</t>
+  </si>
+  <si>
+    <t>float Magnitude = 0.f;</t>
+  </si>
+  <si>
+    <t>Modifier.ModifierMagnitude.AttemptCalculateMagnitude(Spec, Magnitude);</t>
+  </si>
+  <si>
+    <t>ABILITY_VLOG(GetOwnerActor(), Log, TEXT("         %s: %s %f"), *Modifier.Attribute.GetName(), *EGameplayModOpToString(Modifier.ModifierOp), Magnitude);</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会激活，进行各个计算，比Instant要复杂；涉及到Aggregator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同类型的GE，其计算方式不一样，计算方式的不一样，有涉及到是修改BaseValue还是CurrentValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！修改的是CurrentValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！修改的是BaseValue，不过BaseValue的修改，也可能会导致CurrentValue的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1423,6 +1537,170 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:R29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="Q23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1458,11 +1736,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1754,6 +2032,38 @@
     <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55" s="2" t="s">
         <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3236,27 +3546,219 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C10"/>
+  <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>103</v>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3267,6 +3769,79 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="R9" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q11"/>
   <sheetViews>
@@ -3319,168 +3894,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:R29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="Q23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>